--- a/target/test-classes/Input.xlsx
+++ b/target/test-classes/Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhat357\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhat357\Automation\ODS-QA-Automation-serenity-framework\MavenSelenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582F390-5D68-4792-8007-F8D7D7DF7417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EF9FB-0492-4EC4-8842-BDD5D986FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F826770-B167-4FE0-9A37-B5779FD03C75}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>OnePlus</t>
   </si>
@@ -49,7 +49,10 @@
     <t>Iphone</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -65,12 +68,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -103,7 +112,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,33 +427,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDC02D6-07C0-43AC-B243-625BC60597B6}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
